--- a/biology/Botanique/Gomphide/Gomphide.xlsx
+++ b/biology/Botanique/Gomphide/Gomphide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gomphide est un nom vernaculaire ambigu désignant en français plusieurs champignons[1]. Il s'agit d'une francisation du genre latin Gomphidius, construit à partir du grec gomphos, le clou, en allusion à leur forme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gomphide est un nom vernaculaire ambigu désignant en français plusieurs champignons. Il s'agit d'une francisation du genre latin Gomphidius, construit à partir du grec gomphos, le clou, en allusion à leur forme.
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gomphide boréal – Gomphidius borealis[2]
-Gomphide cuivré – Chroogomphus rutilus[2]
-Gomphide glutineux – Gomphidius glutinosus[1]
-Gomphide helvétique – Chroogomphus helveticus[3]
-Gomphide maculé – Gomphidius maculatus[2]
-Gomphide noircissant – Gomphidius nigricans[2]
-Gomphide ocré – Chroogomphus ochraceus[2]
-Gomphide à pied jaune – Chroogomphus flavipes[2]
-Gomphide rose – Chroogomphus ochraceus[3]
-Gomphide vineux – Chroogomphus vinicolor[2]
-Gomphide visqueux – Chroogomphus rutilus[1]
+Gomphide boréal – Gomphidius borealis
+Gomphide cuivré – Chroogomphus rutilus
+Gomphide glutineux – Gomphidius glutinosus
+Gomphide helvétique – Chroogomphus helveticus
+Gomphide maculé – Gomphidius maculatus
+Gomphide noircissant – Gomphidius nigricans
+Gomphide ocré – Chroogomphus ochraceus
+Gomphide à pied jaune – Chroogomphus flavipes
+Gomphide rose – Chroogomphus ochraceus
+Gomphide vineux – Chroogomphus vinicolor
+Gomphide visqueux – Chroogomphus rutilus
 </t>
         </is>
       </c>
